--- a/HW/Production/GCUltimate_R4 Notes.xlsx
+++ b/HW/Production/GCUltimate_R4 Notes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="181">
   <si>
     <t>Reference</t>
   </si>
@@ -84,7 +84,7 @@
     <t>Capacitor_SMD:C_0402_1005Metric</t>
   </si>
   <si>
-    <t>C6,C11,C15,C18,C20,C22,C24</t>
+    <t>C6,C11,C15,C18,C20,C22,C24,C28</t>
   </si>
   <si>
     <t>Capacitor_SMD:C_0201_0603Metric</t>
@@ -105,7 +105,7 @@
     <t>Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
-    <t>C14,C16,C21,C25,C26</t>
+    <t>C14,C16,C21,C25,C26,C27,C31</t>
   </si>
   <si>
     <t>C17</t>
@@ -117,7 +117,10 @@
     <t>10uF/10V (20%)</t>
   </si>
   <si>
-    <t>C27</t>
+    <t>C29,C30</t>
+  </si>
+  <si>
+    <t>1uF</t>
   </si>
   <si>
     <t>D1,D2,D9,D10</t>
@@ -132,18 +135,6 @@
     <t>Diode_SMD:D_SOD-323_HandSoldering</t>
   </si>
   <si>
-    <t>D3,D6,D7</t>
-  </si>
-  <si>
-    <t>M7C</t>
-  </si>
-  <si>
-    <t>Diode_SMD:D_SOD-523</t>
-  </si>
-  <si>
-    <t>B5819W SL</t>
-  </si>
-  <si>
     <t>D4,D5,D8,D11,D12,D13</t>
   </si>
   <si>
@@ -156,7 +147,7 @@
     <t>Package_TO_SOT_SMD:SOT-363_SC-70-6</t>
   </si>
   <si>
-    <t>J1</t>
+    <t>J1,J10</t>
   </si>
   <si>
     <t>SM02B-SURS-TF_LF__SN_</t>
@@ -183,15 +174,6 @@
     <t>Trigger</t>
   </si>
   <si>
-    <t>J8,J9</t>
-  </si>
-  <si>
-    <t>Conn_01x02</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.00mm:PinHeader_1x02_P2.00mm_Vertical</t>
-  </si>
-  <si>
     <t>J13</t>
   </si>
   <si>
@@ -252,16 +234,7 @@
     <t>BSS138DW-7-F</t>
   </si>
   <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q_NMOS_GSD</t>
-  </si>
-  <si>
-    <t>AO3400A</t>
-  </si>
-  <si>
-    <t>R1,R2,R8,R9,R10,R12,R23,R24,R25,R26,R27,R28</t>
+    <t>R1,R2,R8,R9,R10,R12,R23,R24,R25,R26,R27,R28,R39</t>
   </si>
   <si>
     <t>1k</t>
@@ -282,7 +255,7 @@
     <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
-    <t>R5,R15,R16,R17,R20,R29,R30,R31</t>
+    <t>R5,R15,R16,R17,R20,R29,R30,R41</t>
   </si>
   <si>
     <t>10k</t>
@@ -306,19 +279,16 @@
     <t>5.1kohm</t>
   </si>
   <si>
-    <t>R32</t>
-  </si>
-  <si>
-    <t>100R</t>
-  </si>
-  <si>
-    <t>R33</t>
+    <t>R34,R35</t>
   </si>
   <si>
     <t>0R</t>
   </si>
   <si>
-    <t>R34,R35</t>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>1.2k</t>
   </si>
   <si>
     <t>RV1,RV2</t>
@@ -348,175 +318,193 @@
     <t>SW6</t>
   </si>
   <si>
+    <t>GL18_SW</t>
+  </si>
+  <si>
+    <t>${KIPRJMOD}/../progcc_v3_libs/docs/GuliKit Hall stick GL18,hall sensor datasheet.pdf</t>
+  </si>
+  <si>
+    <t>hhl:GL1807SYAE</t>
+  </si>
+  <si>
+    <t>GL1807SYAE-002</t>
+  </si>
+  <si>
+    <t>SW7,SW8</t>
+  </si>
+  <si>
+    <t>SW_Push</t>
+  </si>
+  <si>
+    <t>hhl:Z_Switch_Edge_Omron</t>
+  </si>
+  <si>
+    <t>TC-00100V H5.0 100gf</t>
+  </si>
+  <si>
+    <t>SW15,SW16</t>
+  </si>
+  <si>
+    <t>1TS026A-1000-0550</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2201131300_HYP--Hongyuan-Precision-1TS026A-1000-0550-CT_C913778.pdf</t>
+  </si>
+  <si>
+    <t>hhl:1TS026A-1000-0550</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>ESP32-PICO-MINI-02</t>
+  </si>
+  <si>
+    <t>hhl:MODULE_ESP32-PICO-MINI-02</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>DRV2605LYZFR</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/drv2605l.pdf?ts=1704174329783&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FDRV2605L</t>
+  </si>
+  <si>
+    <t>Package_BGA:Texas_DSBGA-9_1.4715x1.4715mm_Layout3x3_P0.5mm</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>TPS630001RCR</t>
+  </si>
+  <si>
+    <t>hhl:VREG_V62_16624-01YE</t>
+  </si>
+  <si>
+    <t>TPS63001DRCR</t>
+  </si>
+  <si>
+    <t>U5,U10</t>
+  </si>
+  <si>
+    <t>ST_LSM6</t>
+  </si>
+  <si>
+    <t>hhl:LGA14</t>
+  </si>
+  <si>
+    <t>LSM6DSRTR</t>
+  </si>
+  <si>
+    <t>U6,U7</t>
+  </si>
+  <si>
+    <t>MCP3002</t>
+  </si>
+  <si>
+    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/21294E.pdf</t>
+  </si>
+  <si>
+    <t>Package_SO:MSOP-8_3x3mm_P0.65mm</t>
+  </si>
+  <si>
+    <t>MCP3002-I/MS</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>${KIPRJMOD}/../progcc_v3_libs/docs/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>Package_DFN_QFN:QFN-56-1EP_7x7mm_P0.4mm_EP3.2x3.2mm</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>GD25Q80EEIGR</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2108150330_GigaDevice-Semicon-Beijing-GD25Q80EEIGR_C2874937.pdf</t>
+  </si>
+  <si>
+    <t>hhl:USON-8-EP(2x3)</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>BQ25180</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/bq21061.pdf</t>
+  </si>
+  <si>
+    <t>hhl:DSBGA</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>CH340K</t>
+  </si>
+  <si>
+    <t>https://cdn.sparkfun.com/assets/5/0/a/8/5/CH340DS1.PDF</t>
+  </si>
+  <si>
+    <t>hhl:ESSOP-10</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>PI3USB4000A</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1811141855_Diodes-Incorporated-PI3USB4000AZUAEX_C294596.pdf</t>
+  </si>
+  <si>
+    <t>Package_DFN_QFN:Texas_UQFN-10_1.5x2mm_P0.5mm</t>
+  </si>
+  <si>
+    <t>PI3USB4000AZUAEX</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Crystal_GND3</t>
+  </si>
+  <si>
+    <t>Crystal:Resonator_SMD_Murata_CSTxExxV-3Pin_3.0x1.1mm</t>
+  </si>
+  <si>
+    <t>CSTNE12M0GH5L000R0</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
     <t>GL1807SYAE</t>
-  </si>
-  <si>
-    <t>hhl:GL1807SYAE</t>
-  </si>
-  <si>
-    <t>GL1807SYAE-002</t>
-  </si>
-  <si>
-    <t>SW7,SW8</t>
-  </si>
-  <si>
-    <t>SW_Push</t>
-  </si>
-  <si>
-    <t>hhl:Z_Switch_Edge_Omron</t>
-  </si>
-  <si>
-    <t>TC-00100V H5.0 100gf</t>
-  </si>
-  <si>
-    <t>SW15,SW16</t>
-  </si>
-  <si>
-    <t>1TS026A-1000-0550</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/2201131300_HYP--Hongyuan-Precision-1TS026A-1000-0550-CT_C913778.pdf</t>
-  </si>
-  <si>
-    <t>hhl:1TS026A-1000-0550</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>ESP32-PICO-MINI-02</t>
-  </si>
-  <si>
-    <t>hhl:MODULE_ESP32-PICO-MINI-02</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>TPS630001RCR</t>
-  </si>
-  <si>
-    <t>hhl:VREG_V62_16624-01YE</t>
-  </si>
-  <si>
-    <t>TPS63001DRCR</t>
-  </si>
-  <si>
-    <t>U5,U10</t>
-  </si>
-  <si>
-    <t>ST_LSM6</t>
-  </si>
-  <si>
-    <t>hhl:LGA14</t>
-  </si>
-  <si>
-    <t>LSM6DSRTR</t>
-  </si>
-  <si>
-    <t>U6,U7</t>
-  </si>
-  <si>
-    <t>MCP3002</t>
-  </si>
-  <si>
-    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/21294E.pdf</t>
-  </si>
-  <si>
-    <t>Package_SO:MSOP-8_3x3mm_P0.65mm</t>
-  </si>
-  <si>
-    <t>MCP3002-I/MS</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>RP2040</t>
-  </si>
-  <si>
-    <t>${KIPRJMOD}/../progcc_v3_libs/docs/rp2040-datasheet.pdf</t>
-  </si>
-  <si>
-    <t>Package_DFN_QFN:QFN-56-1EP_7x7mm_P0.4mm_EP3.2x3.2mm</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>GD25Q80EEIGR</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/2108150330_GigaDevice-Semicon-Beijing-GD25Q80EEIGR_C2874937.pdf</t>
-  </si>
-  <si>
-    <t>hhl:USON-8-EP(2x3)</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>BQ25180</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/bq21061.pdf</t>
-  </si>
-  <si>
-    <t>hhl:DSBGA</t>
-  </si>
-  <si>
-    <t>U12</t>
-  </si>
-  <si>
-    <t>CH340K</t>
-  </si>
-  <si>
-    <t>https://cdn.sparkfun.com/assets/5/0/a/8/5/CH340DS1.PDF</t>
-  </si>
-  <si>
-    <t>hhl:ESSOP-10</t>
-  </si>
-  <si>
-    <t>U13</t>
-  </si>
-  <si>
-    <t>PI3USB4000A</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/1811141855_Diodes-Incorporated-PI3USB4000AZUAEX_C294596.pdf</t>
-  </si>
-  <si>
-    <t>Package_DFN_QFN:Texas_UQFN-10_1.5x2mm_P0.5mm</t>
-  </si>
-  <si>
-    <t>PI3USB4000AZUAEX</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>Crystal_GND3</t>
-  </si>
-  <si>
-    <t>Crystal:Resonator_SMD_Murata_CSTxExxV-3Pin_3.0x1.1mm</t>
-  </si>
-  <si>
-    <t>CSTNE12M0GH5L000R0</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>C1, C2</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
-    <t>SW1</t>
   </si>
   <si>
     <t>Main</t>
@@ -634,13 +622,15 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -968,9 +958,9 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -1005,7 +995,7 @@
       <c r="E3" s="1">
         <v>2.0</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -1023,7 +1013,7 @@
       <c r="E4" s="1">
         <v>1.0</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -1041,7 +1031,7 @@
       <c r="E5" s="1">
         <v>2.0</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -1059,7 +1049,7 @@
       <c r="E6" s="1">
         <v>4.0</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -1075,9 +1065,9 @@
         <v>24</v>
       </c>
       <c r="E7" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>8.0</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -1095,7 +1085,7 @@
       <c r="E8" s="1">
         <v>1.0</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -1113,7 +1103,7 @@
       <c r="E9" s="1">
         <v>2.0</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -1129,10 +1119,10 @@
         <v>24</v>
       </c>
       <c r="E10" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>7.0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -1150,7 +1140,7 @@
       <c r="E11" s="1">
         <v>1.0</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -1168,14 +1158,14 @@
       <c r="E12" s="1">
         <v>1.0</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -1184,89 +1174,88 @@
         <v>24</v>
       </c>
       <c r="E13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+        <v>2.0</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1">
         <v>4.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="H14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="1"/>
+        <v>6.0</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="H16" s="1"/>
+        <v>2.0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -1275,706 +1264,681 @@
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="1"/>
+        <v>2.0</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+        <v>1.0</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1">
         <v>1.0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="H21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>70</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="H23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E24" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="1"/>
+        <v>13.0</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E25" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="1"/>
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E26" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="1"/>
+        <v>6.0</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E27" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+        <v>8.0</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1">
-        <v>100.0</v>
+        <v>27.0</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E28" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H28" s="1"/>
+        <v>2.0</v>
+      </c>
+      <c r="H28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="B29" s="1">
+        <v>330.0</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E29" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="H29" s="1"/>
+        <v>1.0</v>
+      </c>
+      <c r="H29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.0</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E30" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="H30" s="1"/>
+        <v>2.0</v>
+      </c>
+      <c r="H30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="1">
-        <v>27.0</v>
+        <v>86</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E31" s="1">
         <v>2.0</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="1">
-        <v>330.0</v>
+        <v>88</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E32" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H32" s="1"/>
+        <v>2.0</v>
+      </c>
+      <c r="H32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0.0</v>
+        <v>90</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E33" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+        <v>1.0</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E34" s="1">
         <v>2.0</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E35" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>6.0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E36" s="1">
         <v>1.0</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E37" s="1">
         <v>2.0</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="D38" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E38" s="1">
         <v>2.0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="H38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E39" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E40" s="1">
         <v>1.0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H40" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="H40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E41" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H41" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="H41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E42" s="1">
         <v>2.0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H42" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="H42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E43" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H43" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="H43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E44" s="1">
         <v>1.0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H44" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="H44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D45" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E45" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H45" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="H45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E46" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H46" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="H46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E47" s="1">
         <v>1.0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H47" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="H47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E48" s="1">
         <v>1.0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H48" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="H48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E49" s="1">
         <v>1.0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H49" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="H49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H50" s="1"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="G51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="G52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="G53" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C21"/>
-    <hyperlink r:id="rId2" ref="C24"/>
-    <hyperlink r:id="rId3" ref="C25"/>
-    <hyperlink r:id="rId4" ref="C42"/>
-    <hyperlink r:id="rId5" ref="C46"/>
-    <hyperlink r:id="rId6" ref="C48"/>
-    <hyperlink r:id="rId7" ref="C49"/>
-    <hyperlink r:id="rId8" ref="C50"/>
-    <hyperlink r:id="rId9" ref="C51"/>
+    <hyperlink r:id="rId1" ref="C19"/>
+    <hyperlink r:id="rId2" ref="C22"/>
+    <hyperlink r:id="rId3" ref="C23"/>
+    <hyperlink r:id="rId4" ref="C38"/>
+    <hyperlink r:id="rId5" ref="C40"/>
+    <hyperlink r:id="rId6" ref="C43"/>
+    <hyperlink r:id="rId7" ref="C45"/>
+    <hyperlink r:id="rId8" ref="C46"/>
+    <hyperlink r:id="rId9" ref="C47"/>
+    <hyperlink r:id="rId10" ref="C48"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1999,100 +1963,100 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>113</v>
+      <c r="E5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2123,92 +2087,92 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="C4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="1">
         <v>2.0</v>
       </c>
-      <c r="D2" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>177</v>
+      <c r="C6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="8" ht="26.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2218,23 +2182,23 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/HW/Production/GCUltimate_R4 Notes.xlsx
+++ b/HW/Production/GCUltimate_R4 Notes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="181">
   <si>
     <t>Reference</t>
   </si>
@@ -84,7 +84,7 @@
     <t>Capacitor_SMD:C_0402_1005Metric</t>
   </si>
   <si>
-    <t>C6,C11,C15,C18,C20,C22,C24,C28</t>
+    <t>C6,C11,C15,C18,C20,C22,C24</t>
   </si>
   <si>
     <t>Capacitor_SMD:C_0201_0603Metric</t>
@@ -105,7 +105,7 @@
     <t>Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
-    <t>C14,C16,C21,C25,C26,C27,C31</t>
+    <t>C14,C16,C21,C26,C27,C33,C34</t>
   </si>
   <si>
     <t>C17</t>
@@ -117,10 +117,7 @@
     <t>10uF/10V (20%)</t>
   </si>
   <si>
-    <t>C29,C30</t>
-  </si>
-  <si>
-    <t>1uF</t>
+    <t>C25,C32</t>
   </si>
   <si>
     <t>D1,D2,D9,D10</t>
@@ -135,6 +132,18 @@
     <t>Diode_SMD:D_SOD-323_HandSoldering</t>
   </si>
   <si>
+    <t>D3,D6,D7,D14,D15,D16</t>
+  </si>
+  <si>
+    <t>M7C</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-523</t>
+  </si>
+  <si>
+    <t>B5819W SL</t>
+  </si>
+  <si>
     <t>D4,D5,D8,D11,D12,D13</t>
   </si>
   <si>
@@ -234,7 +243,16 @@
     <t>BSS138DW-7-F</t>
   </si>
   <si>
-    <t>R1,R2,R8,R9,R10,R12,R23,R24,R25,R26,R27,R28,R39</t>
+    <t>Q5,Q6</t>
+  </si>
+  <si>
+    <t>MMBT2222A</t>
+  </si>
+  <si>
+    <t>https://assets.nexperia.com/documents/data-sheet/MMBT2222A.pdf</t>
+  </si>
+  <si>
+    <t>R1,R2,R8,R9,R10,R12,R23,R24,R25,R26,R27,R28</t>
   </si>
   <si>
     <t>1k</t>
@@ -255,7 +273,7 @@
     <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
-    <t>R5,R15,R16,R17,R20,R29,R30,R41</t>
+    <t>R5,R15,R16,R17,R20,R29,R30</t>
   </si>
   <si>
     <t>10k</t>
@@ -279,18 +297,21 @@
     <t>5.1kohm</t>
   </si>
   <si>
-    <t>R34,R35</t>
+    <t>R31,R39</t>
+  </si>
+  <si>
+    <t>R32,R40</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>R33,R34,R35,R41</t>
   </si>
   <si>
     <t>0R</t>
   </si>
   <si>
-    <t>R40</t>
-  </si>
-  <si>
-    <t>1.2k</t>
-  </si>
-  <si>
     <t>RV1,RV2</t>
   </si>
   <si>
@@ -363,18 +384,6 @@
     <t>hhl:MODULE_ESP32-PICO-MINI-02</t>
   </si>
   <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>DRV2605LYZFR</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/drv2605l.pdf?ts=1704174329783&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FDRV2605L</t>
-  </si>
-  <si>
-    <t>Package_BGA:Texas_DSBGA-9_1.4715x1.4715mm_Layout3x3_P0.5mm</t>
-  </si>
-  <si>
     <t>U4</t>
   </si>
   <si>
@@ -489,22 +498,13 @@
     <t>CSTNE12M0GH5L000R0</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>C1, C2</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
-    <t>R1, R2</t>
+    <t>R1,R2</t>
   </si>
   <si>
     <t>SW1</t>
-  </si>
-  <si>
-    <t>GL1807SYAE</t>
   </si>
   <si>
     <t>Main</t>
@@ -562,7 +562,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -577,10 +577,6 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -598,18 +594,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -618,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -629,19 +619,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1065,7 +1052,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1165,7 +1152,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -1181,79 +1168,81 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="1">
         <v>4.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E15" s="1">
         <v>6.0</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -1264,248 +1253,248 @@
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E20" s="1">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="1">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="E22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E23" s="1">
         <v>2.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E25" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E26" s="1">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E27" s="1">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="1">
-        <v>27.0</v>
+        <v>83</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E28" s="1">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="1">
-        <v>330.0</v>
+        <v>86</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E29" s="1">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E30" s="1">
         <v>2.0</v>
@@ -1514,34 +1503,34 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="B31" s="1">
+        <v>330.0</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E31" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.0</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E32" s="1">
         <v>2.0</v>
@@ -1550,364 +1539,382 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E33" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D34" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E34" s="1">
         <v>2.0</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="G34" s="1"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E35" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E36" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="G36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E37" s="1">
         <v>2.0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E38" s="1">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D39" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E39" s="1">
         <v>1.0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E40" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="D41" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E41" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E42" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>130</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E43" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E44" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E45" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E46" s="1">
         <v>1.0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E47" s="1">
         <v>1.0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E48" s="1">
         <v>1.0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>9</v>
+        <v>149</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E49" s="1">
         <v>1.0</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="B51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2"/>
@@ -1927,16 +1934,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C19"/>
-    <hyperlink r:id="rId2" ref="C22"/>
-    <hyperlink r:id="rId3" ref="C23"/>
-    <hyperlink r:id="rId4" ref="C38"/>
-    <hyperlink r:id="rId5" ref="C40"/>
-    <hyperlink r:id="rId6" ref="C43"/>
-    <hyperlink r:id="rId7" ref="C45"/>
-    <hyperlink r:id="rId8" ref="C46"/>
-    <hyperlink r:id="rId9" ref="C47"/>
-    <hyperlink r:id="rId10" ref="C48"/>
+    <hyperlink r:id="rId1" ref="C20"/>
+    <hyperlink r:id="rId2" ref="C23"/>
+    <hyperlink r:id="rId3" ref="C24"/>
+    <hyperlink r:id="rId4" ref="C25"/>
+    <hyperlink r:id="rId5" ref="C41"/>
+    <hyperlink r:id="rId6" ref="C45"/>
+    <hyperlink r:id="rId7" ref="C47"/>
+    <hyperlink r:id="rId8" ref="C48"/>
+    <hyperlink r:id="rId9" ref="C49"/>
+    <hyperlink r:id="rId10" ref="C50"/>
   </hyperlinks>
   <drawing r:id="rId11"/>
 </worksheet>
@@ -1955,28 +1962,29 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.25"/>
-    <col customWidth="1" min="2" max="2" width="10.0"/>
-    <col customWidth="1" min="3" max="3" width="4.0"/>
-    <col customWidth="1" min="6" max="6" width="39.88"/>
+    <col customWidth="1" min="1" max="1" width="13.0"/>
+    <col customWidth="1" min="2" max="2" width="18.5"/>
+    <col customWidth="1" min="3" max="3" width="32.13"/>
+    <col customWidth="1" min="4" max="4" width="57.5"/>
+    <col customWidth="1" min="6" max="6" width="7.5"/>
     <col customWidth="1" min="7" max="7" width="31.25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -1986,81 +1994,84 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="1">
         <v>1.0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>104</v>
+      <c r="G5" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2094,7 +2105,7 @@
         <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -2168,23 +2179,23 @@
       </c>
     </row>
     <row r="8" ht="26.25" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>177</v>
       </c>
     </row>
